--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ceacam1-Havcr2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ceacam1-Havcr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +522,743 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.1456986036693</v>
+        <v>41.42009833333334</v>
       </c>
       <c r="H2">
-        <v>41.1456986036693</v>
+        <v>124.260295</v>
       </c>
       <c r="I2">
-        <v>0.8003762011955078</v>
+        <v>0.731333508387612</v>
       </c>
       <c r="J2">
-        <v>0.8003762011955078</v>
+        <v>0.7313335083876121</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>16.4842624736612</v>
+        <v>4.876561</v>
       </c>
       <c r="N2">
-        <v>16.4842624736612</v>
+        <v>14.629683</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2141512703375839</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.214151270337584</v>
       </c>
       <c r="Q2">
-        <v>678.2564954450399</v>
+        <v>201.9876361484983</v>
       </c>
       <c r="R2">
-        <v>678.2564954450399</v>
+        <v>1817.888725336485</v>
       </c>
       <c r="S2">
-        <v>0.8003762011955078</v>
+        <v>0.1566159998616492</v>
       </c>
       <c r="T2">
-        <v>0.8003762011955078</v>
+        <v>0.1566159998616493</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.0368664889622</v>
+        <v>41.42009833333334</v>
       </c>
       <c r="H3">
-        <v>10.0368664889622</v>
+        <v>124.260295</v>
       </c>
       <c r="I3">
-        <v>0.1952395838437816</v>
+        <v>0.731333508387612</v>
       </c>
       <c r="J3">
-        <v>0.1952395838437816</v>
+        <v>0.7313335083876121</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>16.4842624736612</v>
+        <v>0.088104</v>
       </c>
       <c r="N3">
-        <v>16.4842624736612</v>
+        <v>0.264312</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.003869034658199189</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.003869034658199189</v>
       </c>
       <c r="Q3">
-        <v>165.4503416171472</v>
+        <v>3.64927634356</v>
       </c>
       <c r="R3">
-        <v>165.4503416171472</v>
+        <v>32.84348709204</v>
       </c>
       <c r="S3">
-        <v>0.1952395838437816</v>
+        <v>0.002829554690654078</v>
       </c>
       <c r="T3">
-        <v>0.1952395838437816</v>
+        <v>0.002829554690654079</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>41.42009833333334</v>
+      </c>
+      <c r="H4">
+        <v>124.260295</v>
+      </c>
+      <c r="I4">
+        <v>0.731333508387612</v>
+      </c>
+      <c r="J4">
+        <v>0.7313335083876121</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>17.80690666666667</v>
+      </c>
+      <c r="N4">
+        <v>53.42072</v>
+      </c>
+      <c r="O4">
+        <v>0.7819796950042168</v>
+      </c>
+      <c r="P4">
+        <v>0.7819796950042169</v>
+      </c>
+      <c r="Q4">
+        <v>737.5638251458223</v>
+      </c>
+      <c r="R4">
+        <v>6638.074426312401</v>
+      </c>
+      <c r="S4">
+        <v>0.5718879538353087</v>
+      </c>
+      <c r="T4">
+        <v>0.5718879538353089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.1042846666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.312854</v>
+      </c>
+      <c r="I5">
+        <v>0.001841301064294898</v>
+      </c>
+      <c r="J5">
+        <v>0.001841301064294898</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>4.876561</v>
+      </c>
+      <c r="N5">
+        <v>14.629683</v>
+      </c>
+      <c r="O5">
+        <v>0.2141512703375839</v>
+      </c>
+      <c r="P5">
+        <v>0.214151270337584</v>
+      </c>
+      <c r="Q5">
+        <v>0.5085505383646667</v>
+      </c>
+      <c r="R5">
+        <v>4.576954845282001</v>
+      </c>
+      <c r="S5">
+        <v>0.0003943169619926977</v>
+      </c>
+      <c r="T5">
+        <v>0.0003943169619926978</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.1042846666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.312854</v>
+      </c>
+      <c r="I6">
+        <v>0.001841301064294898</v>
+      </c>
+      <c r="J6">
+        <v>0.001841301064294898</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.088104</v>
+      </c>
+      <c r="N6">
+        <v>0.264312</v>
+      </c>
+      <c r="O6">
+        <v>0.003869034658199189</v>
+      </c>
+      <c r="P6">
+        <v>0.003869034658199189</v>
+      </c>
+      <c r="Q6">
+        <v>0.009187896272000002</v>
+      </c>
+      <c r="R6">
+        <v>0.08269106644800001</v>
+      </c>
+      <c r="S6">
+        <v>7.124057633936014E-06</v>
+      </c>
+      <c r="T6">
+        <v>7.124057633936014E-06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1042846666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.312854</v>
+      </c>
+      <c r="I7">
+        <v>0.001841301064294898</v>
+      </c>
+      <c r="J7">
+        <v>0.001841301064294898</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>17.80690666666667</v>
+      </c>
+      <c r="N7">
+        <v>53.42072</v>
+      </c>
+      <c r="O7">
+        <v>0.7819796950042168</v>
+      </c>
+      <c r="P7">
+        <v>0.7819796950042169</v>
+      </c>
+      <c r="Q7">
+        <v>1.856987326097778</v>
+      </c>
+      <c r="R7">
+        <v>16.71288593488</v>
+      </c>
+      <c r="S7">
+        <v>0.001439860044668264</v>
+      </c>
+      <c r="T7">
+        <v>0.001439860044668264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>14.793565</v>
+      </c>
+      <c r="H8">
+        <v>44.380695</v>
+      </c>
+      <c r="I8">
+        <v>0.2612024169026039</v>
+      </c>
+      <c r="J8">
+        <v>0.2612024169026039</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>4.876561</v>
+      </c>
+      <c r="N8">
+        <v>14.629683</v>
+      </c>
+      <c r="O8">
+        <v>0.2141512703375839</v>
+      </c>
+      <c r="P8">
+        <v>0.214151270337584</v>
+      </c>
+      <c r="Q8">
+        <v>72.14172212996499</v>
+      </c>
+      <c r="R8">
+        <v>649.275499169685</v>
+      </c>
+      <c r="S8">
+        <v>0.05593682939493983</v>
+      </c>
+      <c r="T8">
+        <v>0.05593682939493985</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>14.793565</v>
+      </c>
+      <c r="H9">
+        <v>44.380695</v>
+      </c>
+      <c r="I9">
+        <v>0.2612024169026039</v>
+      </c>
+      <c r="J9">
+        <v>0.2612024169026039</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.088104</v>
+      </c>
+      <c r="N9">
+        <v>0.264312</v>
+      </c>
+      <c r="O9">
+        <v>0.003869034658199189</v>
+      </c>
+      <c r="P9">
+        <v>0.003869034658199189</v>
+      </c>
+      <c r="Q9">
+        <v>1.30337225076</v>
+      </c>
+      <c r="R9">
+        <v>11.73035025684</v>
+      </c>
+      <c r="S9">
+        <v>0.001010601203801568</v>
+      </c>
+      <c r="T9">
+        <v>0.001010601203801568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>14.793565</v>
+      </c>
+      <c r="H10">
+        <v>44.380695</v>
+      </c>
+      <c r="I10">
+        <v>0.2612024169026039</v>
+      </c>
+      <c r="J10">
+        <v>0.2612024169026039</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>17.80690666666667</v>
+      </c>
+      <c r="N10">
+        <v>53.42072</v>
+      </c>
+      <c r="O10">
+        <v>0.7819796950042168</v>
+      </c>
+      <c r="P10">
+        <v>0.7819796950042169</v>
+      </c>
+      <c r="Q10">
+        <v>263.4276312222667</v>
+      </c>
+      <c r="R10">
+        <v>2370.8486810004</v>
+      </c>
+      <c r="S10">
+        <v>0.2042549863038625</v>
+      </c>
+      <c r="T10">
+        <v>0.2042549863038625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3184536666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.955361</v>
+      </c>
+      <c r="I11">
+        <v>0.005622773645489071</v>
+      </c>
+      <c r="J11">
+        <v>0.005622773645489071</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>4.876561</v>
+      </c>
+      <c r="N11">
+        <v>14.629683</v>
+      </c>
+      <c r="O11">
+        <v>0.2141512703375839</v>
+      </c>
+      <c r="P11">
+        <v>0.214151270337584</v>
+      </c>
+      <c r="Q11">
+        <v>1.552958731173667</v>
+      </c>
+      <c r="R11">
+        <v>13.976628580563</v>
+      </c>
+      <c r="S11">
+        <v>0.001204124119002172</v>
+      </c>
+      <c r="T11">
+        <v>0.001204124119002173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.225383497307444</v>
-      </c>
-      <c r="H4">
-        <v>0.225383497307444</v>
-      </c>
-      <c r="I4">
-        <v>0.00438421496071045</v>
-      </c>
-      <c r="J4">
-        <v>0.00438421496071045</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>16.4842624736612</v>
-      </c>
-      <c r="N4">
-        <v>16.4842624736612</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>3.715280726847619</v>
-      </c>
-      <c r="R4">
-        <v>3.715280726847619</v>
-      </c>
-      <c r="S4">
-        <v>0.00438421496071045</v>
-      </c>
-      <c r="T4">
-        <v>0.00438421496071045</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.3184536666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.955361</v>
+      </c>
+      <c r="I12">
+        <v>0.005622773645489071</v>
+      </c>
+      <c r="J12">
+        <v>0.005622773645489071</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.088104</v>
+      </c>
+      <c r="N12">
+        <v>0.264312</v>
+      </c>
+      <c r="O12">
+        <v>0.003869034658199189</v>
+      </c>
+      <c r="P12">
+        <v>0.003869034658199189</v>
+      </c>
+      <c r="Q12">
+        <v>0.028057041848</v>
+      </c>
+      <c r="R12">
+        <v>0.252513376632</v>
+      </c>
+      <c r="S12">
+        <v>2.175470610960622E-05</v>
+      </c>
+      <c r="T12">
+        <v>2.175470610960622E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3184536666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.955361</v>
+      </c>
+      <c r="I13">
+        <v>0.005622773645489071</v>
+      </c>
+      <c r="J13">
+        <v>0.005622773645489071</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>17.80690666666667</v>
+      </c>
+      <c r="N13">
+        <v>53.42072</v>
+      </c>
+      <c r="O13">
+        <v>0.7819796950042168</v>
+      </c>
+      <c r="P13">
+        <v>0.7819796950042169</v>
+      </c>
+      <c r="Q13">
+        <v>5.670674719991111</v>
+      </c>
+      <c r="R13">
+        <v>51.03607247991999</v>
+      </c>
+      <c r="S13">
+        <v>0.004396894820377292</v>
+      </c>
+      <c r="T13">
+        <v>0.004396894820377293</v>
       </c>
     </row>
   </sheetData>
